--- a/senado_viajes/originales/viajes_2012.xlsx
+++ b/senado_viajes/originales/viajes_2012.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="316">
   <si>
     <t xml:space="preserve">Autoridad</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t xml:space="preserve">RACHED, Emilio Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frente Cívico Por Santiago</t>
   </si>
   <si>
     <t xml:space="preserve">HSN 2283/2012</t>
@@ -1114,7 +1117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1124,7 +1127,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1169,6 +1172,10 @@
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1306,8 +1313,8 @@
   </sheetPr>
   <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2136,8 +2143,8 @@
       <c r="I29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>99</v>
+      <c r="J29" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2145,16 +2152,16 @@
         <v>57</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F30" s="9" t="n">
         <v>1250</v>
@@ -2173,24 +2180,24 @@
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="14" t="n">
+      <c r="G31" s="15" t="n">
         <v>9408</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>16</v>
@@ -2201,24 +2208,24 @@
         <v>59</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="14" t="n">
+      <c r="G32" s="15" t="n">
         <v>8064</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>60</v>
@@ -2226,285 +2233,285 @@
     </row>
     <row r="33" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="14" t="n">
+      <c r="G33" s="15" t="n">
         <v>17472</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="18" t="n">
+      <c r="E34" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="19" t="n">
         <v>700</v>
       </c>
-      <c r="G34" s="19" t="n">
+      <c r="G34" s="20" t="n">
         <v>4735.5</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="18" t="n">
+      <c r="F35" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="G35" s="19" t="n">
+      <c r="G35" s="20" t="n">
         <v>4050</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="G36" s="19" t="n">
+      <c r="G36" s="20" t="n">
         <v>4050</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F37" s="13" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="20" t="n">
+      <c r="H37" s="21" t="n">
         <v>700</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="18" t="n">
+      <c r="D38" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="G38" s="19" t="n">
+      <c r="G38" s="20" t="n">
         <v>1800</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J38" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="A39" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="18" t="n">
+      <c r="C39" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="19" t="n">
         <v>500</v>
       </c>
-      <c r="G39" s="19" t="n">
+      <c r="G39" s="20" t="n">
         <v>2250</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J39" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="23" t="n">
+      <c r="D40" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="24" t="n">
         <v>1750</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J40" s="17" t="s">
+      <c r="I40" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="18" t="n">
+      <c r="D41" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="G41" s="19" t="n">
+      <c r="G41" s="20" t="n">
         <v>4059</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="24" t="s">
         <v>174</v>
       </c>
+      <c r="B42" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="C42" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F42" s="9" t="n">
         <v>1250</v>
@@ -2512,7 +2519,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>16</v>
@@ -2520,19 +2527,19 @@
     </row>
     <row r="43" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="24" t="s">
         <v>178</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F43" s="9" t="n">
         <v>1750</v>
@@ -2540,7 +2547,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>16</v>
@@ -2550,27 +2557,27 @@
       <c r="A44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>180</v>
+      <c r="B44" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="14" t="n">
+      <c r="G44" s="15" t="n">
         <v>5600</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>60</v>
@@ -2580,17 +2587,17 @@
       <c r="A45" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>181</v>
+      <c r="B45" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F45" s="13" t="n">
         <v>750</v>
@@ -2598,7 +2605,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>90</v>
@@ -2608,17 +2615,17 @@
       <c r="A46" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>182</v>
+      <c r="B46" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" s="9" t="n">
         <v>1500</v>
@@ -2626,7 +2633,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>128</v>
@@ -2634,19 +2641,19 @@
     </row>
     <row r="47" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>182</v>
+        <v>154</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" s="9" t="n">
         <v>1500</v>
@@ -2654,55 +2661,55 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="23" t="n">
+      <c r="D48" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="24" t="n">
         <v>1500</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J48" s="17" t="s">
+      <c r="I48" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" s="9" t="n">
         <v>1500</v>
@@ -2710,7 +2717,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>85</v>
@@ -2718,19 +2725,19 @@
     </row>
     <row r="50" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F50" s="9" t="n">
         <v>1500</v>
@@ -2738,27 +2745,27 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F51" s="9" t="n">
         <v>1500</v>
@@ -2766,7 +2773,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>118</v>
@@ -2774,19 +2781,19 @@
     </row>
     <row r="52" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F52" s="9" t="n">
         <v>1500</v>
@@ -2794,7 +2801,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>16</v>
@@ -2802,19 +2809,19 @@
     </row>
     <row r="53" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>182</v>
+        <v>191</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F53" s="13" t="n">
         <v>600</v>
@@ -2822,7 +2829,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>16</v>
@@ -2832,17 +2839,17 @@
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>182</v>
+      <c r="B54" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F54" s="9" t="n">
         <v>1200</v>
@@ -2850,7 +2857,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>132</v>
@@ -2858,19 +2865,19 @@
     </row>
     <row r="55" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>182</v>
+        <v>192</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F55" s="9" t="n">
         <v>2100</v>
@@ -2878,7 +2885,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>16</v>
@@ -2886,19 +2893,19 @@
     </row>
     <row r="56" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>182</v>
+        <v>194</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F56" s="9" t="n">
         <v>1500</v>
@@ -2906,87 +2913,87 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="B57" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F57" s="18" t="n">
+      <c r="D57" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="G57" s="19" t="n">
+      <c r="G57" s="20" t="n">
         <v>2694</v>
       </c>
       <c r="H57" s="10"/>
-      <c r="I57" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" s="17" t="s">
+      <c r="I57" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J57" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="A58" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="16" t="s">
+      <c r="D58" s="17" t="s">
         <v>200</v>
       </c>
+      <c r="E58" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="19" t="n">
+      <c r="G58" s="20" t="n">
         <v>7882</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="26" t="n">
         <v>700</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>187</v>
+        <v>202</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" s="24" t="s">
         <v>203</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F59" s="9" t="n">
         <v>1200</v>
@@ -2994,7 +3001,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>99</v>
@@ -3002,19 +3009,19 @@
     </row>
     <row r="60" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>203</v>
+        <v>208</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F60" s="13" t="n">
         <v>800</v>
@@ -3022,57 +3029,57 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F61" s="18" t="n">
+      <c r="D61" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="19" t="n">
         <v>800</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="26" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>99</v>
+        <v>214</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>214</v>
+        <v>191</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -3080,7 +3087,7 @@
         <v>1800</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>16</v>
@@ -3090,17 +3097,17 @@
       <c r="A63" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="24" t="s">
-        <v>218</v>
+      <c r="B63" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F63" s="13" t="n">
         <v>750</v>
@@ -3108,7 +3115,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>128</v>
@@ -3116,19 +3123,19 @@
     </row>
     <row r="64" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>220</v>
+        <v>187</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F64" s="9" t="n">
         <v>2100</v>
@@ -3136,27 +3143,27 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="24" t="s">
         <v>225</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F65" s="9" t="n">
         <v>1200</v>
@@ -3164,93 +3171,93 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="B66" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="D66" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F66" s="18" t="n">
+      <c r="E66" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="19" t="n">
         <v>600</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="J66" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="18" t="n">
+      <c r="F67" s="19" t="n">
         <v>600</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J67" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J67" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>234</v>
+      <c r="B68" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="D68" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="18" t="n">
+      <c r="E68" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" s="19" t="n">
         <v>800</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J68" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J68" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3258,17 +3265,17 @@
       <c r="A69" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="24" t="s">
-        <v>239</v>
+      <c r="B69" s="25" t="s">
+        <v>240</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F69" s="13" t="n">
         <v>400</v>
@@ -3276,55 +3283,55 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B70" s="22" t="s">
+      <c r="A70" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="B70" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="C70" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F70" s="23" t="n">
+      <c r="D70" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="24" t="n">
         <v>2100</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J70" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J70" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>248</v>
+      <c r="A71" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F71" s="9" t="n">
         <v>2100</v>
@@ -3332,7 +3339,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>16</v>
@@ -3342,17 +3349,17 @@
       <c r="A72" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="24" t="s">
-        <v>248</v>
+      <c r="B72" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F72" s="9" t="n">
         <v>2100</v>
@@ -3360,7 +3367,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>60</v>
@@ -3370,17 +3377,17 @@
       <c r="A73" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>255</v>
+      <c r="B73" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>1250</v>
@@ -3388,7 +3395,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>60</v>
@@ -3396,19 +3403,19 @@
     </row>
     <row r="74" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F74" s="9" t="n">
         <v>2100</v>
@@ -3416,27 +3423,27 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="24" t="s">
-        <v>248</v>
+      <c r="B75" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>2100</v>
@@ -3444,7 +3451,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>58</v>
@@ -3452,19 +3459,19 @@
     </row>
     <row r="76" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="24" t="s">
         <v>263</v>
       </c>
+      <c r="B76" s="25" t="s">
+        <v>264</v>
+      </c>
       <c r="C76" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F76" s="9" t="n">
         <v>1500</v>
@@ -3472,7 +3479,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>16</v>
@@ -3480,19 +3487,19 @@
     </row>
     <row r="77" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B77" s="24" t="s">
         <v>268</v>
       </c>
+      <c r="B77" s="25" t="s">
+        <v>269</v>
+      </c>
       <c r="C77" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>1250</v>
@@ -3500,55 +3507,55 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="17" t="s">
+      <c r="B78" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="16" t="s">
+      <c r="D78" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F78" s="23" t="n">
+      <c r="E78" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F78" s="24" t="n">
         <v>2100</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J78" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J78" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>273</v>
+        <v>278</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F79" s="9" t="n">
         <v>1800</v>
@@ -3556,55 +3563,55 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C80" s="17" t="s">
+      <c r="A80" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="18" t="n">
+      <c r="D80" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="19" t="n">
         <v>900</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>90</v>
+        <v>277</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>281</v>
+      <c r="B81" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -3619,20 +3626,20 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="B82" s="24" t="s">
+      <c r="A82" s="27" t="s">
         <v>286</v>
       </c>
+      <c r="B82" s="25" t="s">
+        <v>287</v>
+      </c>
       <c r="C82" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -3650,17 +3657,17 @@
       <c r="A83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="24" t="s">
-        <v>281</v>
+      <c r="B83" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -3676,19 +3683,19 @@
     </row>
     <row r="84" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>281</v>
+        <v>189</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -3704,19 +3711,19 @@
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>290</v>
+        <v>191</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -3724,55 +3731,55 @@
         <v>2100</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="C86" s="17" t="s">
+      <c r="A86" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>288</v>
+      <c r="D86" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="27" t="n">
+      <c r="H86" s="28" t="n">
         <v>2100</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J86" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J86" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B87" s="24" t="s">
         <v>294</v>
       </c>
+      <c r="B87" s="25" t="s">
+        <v>295</v>
+      </c>
       <c r="C87" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F87" s="13" t="n">
         <v>800</v>
@@ -3780,7 +3787,7 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>16</v>
@@ -3788,19 +3795,19 @@
     </row>
     <row r="88" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B88" s="24" t="s">
         <v>300</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>301</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F88" s="9" t="n">
         <v>1500</v>
@@ -3808,37 +3815,37 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C89" s="17" t="s">
+      <c r="B89" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="F89" s="23" t="n">
+      <c r="D89" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F89" s="24" t="n">
         <v>1500</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
-      <c r="I89" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="J89" s="17" t="s">
+      <c r="I89" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="J89" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3846,17 +3853,17 @@
       <c r="A90" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="24" t="s">
-        <v>303</v>
+      <c r="B90" s="25" t="s">
+        <v>304</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F90" s="9" t="n">
         <v>1000</v>
@@ -3864,7 +3871,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>58</v>
@@ -3874,17 +3881,17 @@
       <c r="A91" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="24" t="s">
-        <v>303</v>
+      <c r="B91" s="25" t="s">
+        <v>304</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F91" s="9" t="n">
         <v>1000</v>
@@ -3892,83 +3899,83 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="17" t="s">
+      <c r="B92" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92" s="16" t="s">
+      <c r="D92" s="17" t="s">
         <v>307</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>308</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="27" t="n">
+      <c r="H92" s="28" t="n">
         <v>2100</v>
       </c>
       <c r="I92" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>307</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="27" t="n">
+      <c r="H93" s="28" t="n">
         <v>2100</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J93" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="J93" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>310</v>
+        <v>244</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -3976,7 +3983,7 @@
         <v>1500</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>16</v>
